--- a/Data/NetSuiteTestData_IssueCreditToclient.xlsx
+++ b/Data/NetSuiteTestData_IssueCreditToclient.xlsx
@@ -16,12 +16,12 @@
     <sheet name="soDetailsMultipleItemsEmp20" sheetId="10" r:id="rId7"/>
     <sheet name="soDetailsMultipleItemsGiftwrap" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="723">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1970,12 +1970,6 @@
     <t>SB1</t>
   </si>
   <si>
-    <t xml:space="preserve">Select Adjustment </t>
-  </si>
-  <si>
-    <t>Add or Remove Agency Commission</t>
-  </si>
-  <si>
     <t>Agencyselection</t>
   </si>
   <si>
@@ -1985,18 +1979,6 @@
     <t>Order Entry Error</t>
   </si>
   <si>
-    <t>Bill TO Select</t>
-  </si>
-  <si>
-    <t>RevisedEST/IO/CPE</t>
-  </si>
-  <si>
-    <t>NewNote1</t>
-  </si>
-  <si>
-    <t>NewNote2</t>
-  </si>
-  <si>
     <t>SubramanyamBaipineedi@iheartmedia.com</t>
   </si>
   <si>
@@ -2018,9 +2000,6 @@
     <t>linecreditamount</t>
   </si>
   <si>
-    <t>SB5 20.1 Upgrade - iHeartmedia - Administrator</t>
-  </si>
-  <si>
     <t>Arsin*1234</t>
   </si>
   <si>
@@ -2030,20 +2009,205 @@
     <t>linetype</t>
   </si>
   <si>
-    <t>TC_NST_6629</t>
-  </si>
-  <si>
-    <t>8211469853</t>
+    <t>AlertText</t>
+  </si>
+  <si>
+    <t>Credit Amount can not be more than the Open Amount.</t>
+  </si>
+  <si>
+    <t>Issue Credit and Revise Invoice</t>
+  </si>
+  <si>
+    <t>creditReviseInvoice</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>RevisedRate</t>
+  </si>
+  <si>
+    <t>TC_ID_NS-6695</t>
+  </si>
+  <si>
+    <t>TestFlow</t>
+  </si>
+  <si>
+    <t>Issue_credit_to_client</t>
+  </si>
+  <si>
+    <t>SB5 20.1 Upgrade - iHeartmedia  -  Administrator</t>
+  </si>
+  <si>
+    <t>6315403077</t>
+  </si>
+  <si>
+    <t>NS-6613</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client  Credit Only - Verify adjustment cannnot be created for amount greater than partial amount - TTWN</t>
+  </si>
+  <si>
+    <t>8313889045</t>
+  </si>
+  <si>
+    <t>NS-6615</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client  Issue Credit and Revise Invoice - Verify adjustment cannnot be created for amount greater than partial amount - TTWN</t>
+  </si>
+  <si>
+    <t>NS-6614</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client Credit Only - Verify adjustment cannnot be created for amount greater than partial amount - Radio</t>
+  </si>
+  <si>
+    <t>3011483261</t>
+  </si>
+  <si>
+    <t>NS-6625</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client  Issue Credit and Revise Invoice - TTWN (with credit to Invoice)</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>8313890063</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client  Issue Credit and Revise Invoice - Verify adjustment cannnot be created for amount greater than partial amount - Radio</t>
+  </si>
+  <si>
+    <t>3011578130</t>
+  </si>
+  <si>
+    <t>NS-6616</t>
+  </si>
+  <si>
+    <t>NS-6626</t>
+  </si>
+  <si>
+    <t>4011726012</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>NS-6627</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client Issue Credit and Revise Invoice - Radio (with partial payment)</t>
+  </si>
+  <si>
+    <t>3011666638</t>
+  </si>
+  <si>
+    <t>NS-6630</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client TTWN Credit Only -Partially Paid Invoice (with credit to invoice)</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client  Radio Credit Only -Partially Paid Invoice (with credit to invoice)</t>
+  </si>
+  <si>
+    <t>NS-6632</t>
+  </si>
+  <si>
+    <t>NS-6631</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client TTWN Credit Only -Partially Paid Invoice (with payment applied)</t>
+  </si>
+  <si>
+    <t>8315199821</t>
+  </si>
+  <si>
+    <t>NS-6633</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client Radio Credit Only -Partially Paid Invoice (with payment applied)</t>
+  </si>
+  <si>
+    <t>3013490278</t>
+  </si>
+  <si>
+    <t>8315086302</t>
+  </si>
+  <si>
+    <t>3011667301</t>
+  </si>
+  <si>
+    <t>NS-6624</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client  Issue Credit and Revise Invoice - Digital (with credit to Invoice)</t>
+  </si>
+  <si>
+    <t>8212051750</t>
+  </si>
+  <si>
+    <t>NS-6623</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client  Issue Credit and Revise Invoice - TTWN (with partial payment)</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>8313889300</t>
+  </si>
+  <si>
+    <t>NS-6629</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client  Digital Credit Only -Partially Paid Invoice (with payment applied)</t>
+  </si>
+  <si>
+    <t>NS-6628</t>
+  </si>
+  <si>
+    <t>8212808081</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client  Digital Credit Only -Partially Paid Invoice (with credit to invoice)</t>
+  </si>
+  <si>
+    <t>8212808336</t>
+  </si>
+  <si>
+    <t>NS-6692</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client Issue Credit and Revise Invoice - Digital (with partial payment)</t>
+  </si>
+  <si>
+    <t>8211003224</t>
+  </si>
+  <si>
+    <t>Issue Credit to Client  Issue Credit and Revise Invoice - Radio (with credit to Invoice)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2057,7 +2221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2080,11 +2244,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2097,8 +2275,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2401,33 +2589,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="51" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" customWidth="1"/>
+    <col min="5" max="5" width="51" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.28515625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="33.5703125" customWidth="1"/>
-    <col min="16" max="16" width="28.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" customWidth="1"/>
-    <col min="19" max="19" width="19" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" customWidth="1"/>
+    <col min="12" max="12" width="28.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="50.85546875" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2440,105 +2627,849 @@
       <c r="C1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>654</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>662</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="8"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>669</v>
+        <v>713</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>648</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M2" s="7"/>
+      <c r="S2" s="8"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="S3" s="8"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="P4" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="S4" s="8"/>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M5" s="7"/>
+      <c r="P5" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="S5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="P6" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="D7" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="P7" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="P9" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="P10" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="R10" s="7">
+        <v>390</v>
+      </c>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="P11" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="P12" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="R12" s="7">
+        <v>390</v>
+      </c>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M13" s="7"/>
+      <c r="P13" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="R13" s="7">
+        <v>390</v>
+      </c>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q2" s="7"/>
+      <c r="E18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13">
       <formula1>"SB1,SB2,SB3,SB4"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E8" r:id="rId6"/>
+    <hyperlink ref="E9" r:id="rId7"/>
+    <hyperlink ref="E10" r:id="rId8"/>
+    <hyperlink ref="E11" r:id="rId9"/>
+    <hyperlink ref="E12" r:id="rId10"/>
+    <hyperlink ref="E13" r:id="rId11"/>
+    <hyperlink ref="E18" r:id="rId12"/>
+    <hyperlink ref="F18" r:id="rId13"/>
+    <hyperlink ref="E3" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
